--- a/backend/resultdb/결과 data.xlsx
+++ b/backend/resultdb/결과 data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backs\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didco\OneDrive\바탕 화면\github folder\ai-htp-project\backend\resultdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83006924-8110-4AD8-A99D-1A9D44239FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727AE940-C117-49B4-8447-D8F086061269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF3807A5-0DFC-4CCE-8FBC-2A95641E9986}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF3807A5-0DFC-4CCE-8FBC-2A95641E9986}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,9 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,22 +634,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3012906-12F3-4B84-AA2D-6224DA6FFC70}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.09765625" customWidth="1"/>
     <col min="2" max="2" width="5.59765625" customWidth="1"/>
-    <col min="3" max="3" width="50.69921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="167" customWidth="1"/>
+    <col min="4" max="4" width="129.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -660,10 +658,10 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
       <c r="D2" t="s">
         <v>37</v>
       </c>
@@ -715,10 +713,10 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>38</v>
       </c>
@@ -770,10 +768,10 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>39</v>
       </c>
@@ -809,10 +807,10 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
       <c r="D24" t="s">
         <v>40</v>
       </c>
@@ -856,10 +854,10 @@
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="3"/>
       <c r="D31" t="s">
         <v>41</v>
       </c>
@@ -895,10 +893,10 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="3"/>
       <c r="D37" t="s">
         <v>42</v>
       </c>
@@ -990,12 +988,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
